--- a/output/Screenshot 2025-02-08 153254.xlsx
+++ b/output/Screenshot 2025-02-08 153254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,6 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Format</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mode</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Extracted Text</t>
         </is>
       </c>
@@ -473,38 +443,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Screenshot 2025-02-08 153254.png</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PNG</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>RGBA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>787x802</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>787</v>
-      </c>
-      <c r="F2" t="n">
-        <v>802</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Set up two-step authentication
-Use a free authenticator app (such as Google Authenticator,
-Microsoft Authenticator, or Authy) to scan this QR code to set up
-your account.
-Enter code manually instead
-Use text messages or a security key instead.</t>
+          <t>Set up two-step authentication</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Use a free authenticator app (such as Google Authenticator,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Microsoft Authenticator, or Authy) to scan this QR code to set up</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>your account.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Enter code manually instead</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Use text messages or a security key instead.</t>
         </is>
       </c>
     </row>
